--- a/savage-science/checklist.xlsx
+++ b/savage-science/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/savage-science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBC67EA-B1AF-ED49-8E5E-29001C547D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C050C7-DD9B-9544-91EC-225E174E6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6578F88F-EA78-A442-9768-E52E7B301C27}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">サヴェッジ･サイエンス トライアルズVol.3 邪神誕生 </t>
   </si>
   <si>
-    <t>trails03.jpg</t>
-  </si>
-  <si>
     <t>サヴェッジ･サイエンス トライアルズVol.4 狂った歯車</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>trials05.jpg</t>
+  </si>
+  <si>
+    <t>trials03.jpg</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -567,13 +567,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -584,16 +584,16 @@
         <v>2006</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -604,16 +604,16 @@
         <v>2006</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
